--- a/Or-Tools/model2DR/istanza.xlsx
+++ b/Or-Tools/model2DR/istanza.xlsx
@@ -106,8 +106,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -128,124 +132,57 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="A4:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>1</v>
+      <c r="B2" s="1" t="n">
+        <v>2.45</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
+      <c r="D2" s="1" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>1</v>
+      <c r="B3" s="1" t="n">
+        <v>1.5</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>2</v>
+      <c r="D3" s="1" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
